--- a/medicine/Enfance/Estelle_Faye/Estelle_Faye.xlsx
+++ b/medicine/Enfance/Estelle_Faye/Estelle_Faye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Estelle Faye, née le 1er mai 1978, est à ses débuts une actrice et scénariste française. Depuis 2009, elle est surtout connue comme autrice de science-fiction et de fantasy, domaines dans lesquelles ses romans et nouvelles ont reçu plusieurs prix.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir suivi des cours de théâtre à Paris et à San Francisco[1], Estelle Faye se consacre à la réalisation et à l’écriture[2]. En 2008, elle sort diplômée de la section scénario de la Femis[3]. Elle scénarise plusieurs courts métrages dont un est récompensé par le prix France Télévisions. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir suivi des cours de théâtre à Paris et à San Francisco, Estelle Faye se consacre à la réalisation et à l’écriture. En 2008, elle sort diplômée de la section scénario de la Femis. Elle scénarise plusieurs courts métrages dont un est récompensé par le prix France Télévisions. 
 La première véritable publication d'Estelle Faye est une nouvelle dans l'anthologie Dragons publiée par Calmann-Lévy en 2009. Elle publie fin 2012 son premier roman pour la jeunesse, La Dernière Lame (Le Pré aux clercs), et début 2013 son premier roman adulte, Porcelaine (Les Moutons électriques), tous deux relevant de la fantasy. 
 Elle poursuit dans cette veine en enchaînant les trois volumes de La Voie des oracles à partir de 2014, tout en multipliant ses apparitions dans différentes revues et anthologies. En 2014, elle coordonne la rédaction l'anthologie En Dessous chez Parchemins &amp; Traverses.
-Depuis 2019, elle participe au podcast sur l’écriture Procrastination en compagnie de Lionel Davoust et Mélanie Fazi[4].
-Elle est membre de la Charte des auteurs et illustrateurs jeunesse[5].
+Depuis 2019, elle participe au podcast sur l’écriture Procrastination en compagnie de Lionel Davoust et Mélanie Fazi.
+Elle est membre de la Charte des auteurs et illustrateurs jeunesse.
 </t>
         </is>
       </c>
@@ -548,35 +562,210 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pièces de théâtre
-Le Côté bleu du ciel : pièce en trois actes, un prologue et un épilogue, avec Benjamin Bur, L'Harmattan, coll. « Théâtre des cinq continents »
-Série La Voie des oracles
-Thya, Scrineo, 2014Réédition, Gallimard, coll. « Folio SF » no 564, 2017 - Prix Elbakin du meilleur roman français pour la jeunesse 2015 et prix Imaginales 2015 (catégorie jeunesse)
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Côté bleu du ciel : pièce en trois actes, un prologue et un épilogue, avec Benjamin Bur, L'Harmattan, coll. « Théâtre des cinq continents »</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série La Voie des oracles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thya, Scrineo, 2014Réédition, Gallimard, coll. « Folio SF » no 564, 2017 - Prix Elbakin du meilleur roman français pour la jeunesse 2015 et prix Imaginales 2015 (catégorie jeunesse)
 Enoch, Scrineo, 2015Réédition, Gallimard, coll. « Folio SF » no 567, 2017
-Aylus, Scrineo, 2016Réédition, Gallimard, coll. « Folio SF » no 595, 2018
-Série Bohen
-Les Seigneurs de Bohen, Critic, 2017Réédition, Gallimard, coll. « Folio SF » no 637, 2019
-Les Révoltés de Bohen, Critic, 2019Réédition, Gallimard, coll. « Folio SF » no 695, 2022
-Série Les Magies de l'archipel
-Les livres de cette série sont illustrés par Sanoe.
+Aylus, Scrineo, 2016Réédition, Gallimard, coll. « Folio SF » no 595, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Bohen</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Seigneurs de Bohen, Critic, 2017Réédition, Gallimard, coll. « Folio SF » no 637, 2019
+Les Révoltés de Bohen, Critic, 2019Réédition, Gallimard, coll. « Folio SF » no 695, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Les Magies de l'archipel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les livres de cette série sont illustrés par Sanoe.
 Arcadia, Nathan, 2022
 La Cité Mirage, Nathan, 2023
 L'Île pirate, Nathan, 2023
-Atlantis, Nathan, 2024, 144 p.  (ISBN 978-2-09-503077-3)
-Romans indépendants
-La Dernière Lame, Le Pré aux clercs, coll. « Pandore », 2012
+Atlantis, Nathan, 2024, 144 p.  (ISBN 978-2-09-503077-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Dernière Lame, Le Pré aux clercs, coll. « Pandore », 2012
 Porcelaine, légende du tigre et de la tisseuse, Les Moutons électriques, coll. « Bibliothèque voltaïque », 2013Prix Elbakin du meilleur roman français 2013, nomination au grand prix de l'Imaginaire du meilleur roman francophone 2013
 Un éclat de givre, Les Moutons électriques, coll. « Bibliothèque voltaïque », 2014Réédition, Gallimard, coll. « Folio SF » no 585, 2017
-Les Guerriers de glace[6], Nathan, 2017
+Les Guerriers de glace, Nathan, 2017
 Les Nuages de Magellan, Scrineo, 2018Réédition, Gallimard, coll. « Folio SF » no 659, 2020 - Prix Bob-Morane 2019 et prix Rosny aîné 2019
 L'Île au manoir, Scrineo, 2018
 Le Drakkar éternel, Scrineo, 2020
 Un reflet de lune, ActuSF, 2021Réédition, Gallimard, coll. « Folio SF » no 717, 2022
 Widjigo, Albin Michel, coll. « Imaginaire », 2021  (ISBN 978-2-226-45743-1)
 L'Arpenteuse de rêves, Rageot, 2021  (ISBN 978-2-7002-7656-5)
-La Dernière Amazone, Rageot, 2023  (ISBN 978-2-7002-7919-1)
-Nouvelles
-Menthe sauvage, dans Dieu reconnaîtra les siens..., Mairie de Chalabre, 2006
+La Dernière Amazone, Rageot, 2023  (ISBN 978-2-7002-7919-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Menthe sauvage, dans Dieu reconnaîtra les siens..., Mairie de Chalabre, 2006
 La Suriedad, dans Dragons, Calmann-Lévy, 2009
 Madame Sâng, dans Dimension chevalerie chinoise, Rivière Blanche, 2014
 Gipsy Nuke, Fiction, no 18, 2014
@@ -596,57 +785,198 @@
 Elle a tes yeux, dans Créatures, Mnémos, 2018
 Jardins, dans Natures, Mnémos, 2019
 Conte de la pluie qui n'est pas venue, dans Nos Futurs : imaginer les possibles du changement climatique, ActuSF, 2020.
-La Célébration de la Mer, dans Nous parlons depuis les ténèbres : anthologie de nouvelles d'horreurs, de gothique et de fantastique sombre, Éditions Goater, 2023
-Anthologies
-En-dessous, Parchemins et traverses, coll. « Les Anthologies des réalités imaginaires », 2014.
-Dimension routes de légendes, légendes de la route, avec Jérôme Akkouche, Rivière blanche, 2016.
-Prix
-Prix Elbakin du meilleur roman français, 2013, pour Porcelaine[7].
-Prix Elbakin du meilleur roman français pour la jeunesse, 2015, pour Thya[7].
+La Célébration de la Mer, dans Nous parlons depuis les ténèbres : anthologie de nouvelles d'horreurs, de gothique et de fantastique sombre, Éditions Goater, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Anthologies</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En-dessous, Parchemins et traverses, coll. « Les Anthologies des réalités imaginaires », 2014.
+Dimension routes de légendes, légendes de la route, avec Jérôme Akkouche, Rivière blanche, 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix Elbakin du meilleur roman français, 2013, pour Porcelaine.
+Prix Elbakin du meilleur roman français pour la jeunesse, 2015, pour Thya.
 Prix Imaginales de la meilleure œuvres pour la jeunesse, 2015, pour La voie des oracles.
-Prix Actusf de l'Uchronie, 2016, pour La Voie des oracles, tome 3 [8].
+Prix Actusf de l'Uchronie, 2016, pour La Voie des oracles, tome 3 .
 Prix Imaginales de la meilleure nouvelle, 2016, pour Une robe couleur d’océan.
-Prix Bob-Morane du roman francophone, 2019, pour Les Nuages de Magellan[9].
-Prix Rosny aîné du roman, 2019, pour Les Nuages de Magellan[10].
+Prix Bob-Morane du roman francophone, 2019, pour Les Nuages de Magellan.
+Prix Rosny aîné du roman, 2019, pour Les Nuages de Magellan.
 Prix Imaginales de la meilleure œuvres pour la jeunesse, 2019, pour Les Guerriers de glace.
 Prix Rosny aîné de la nouvelle, 2021, pour Conte de la pluie qui n’est pas venue.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Estelle_Faye</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Actrice
-2004 : La Nourrice : la femme révoltée
-2005 : Clara Sheller : la vendeuse de l'agence de voyage
-Scénariste
-2007 : Carcasse d'Ismaël El Maoula El Iraki
-2017 : Tout ce qui grouille sous la mer avec Fabien Legeron
-Réalisatrice
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Actrice</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2004 : La Nourrice : la femme révoltée
+2005 : Clara Sheller : la vendeuse de l'agence de voyage</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2007 : Carcasse d'Ismaël El Maoula El Iraki
 2017 : Tout ce qui grouille sous la mer avec Fabien Legeron</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Estelle_Faye</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Réalisatrice</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2017 : Tout ce qui grouille sous la mer avec Fabien Legeron</t>
         </is>
       </c>
     </row>
